--- a/LR_clicks.xlsx
+++ b/LR_clicks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20055" windowHeight="7935"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>P1</t>
   </si>
@@ -159,9 +159,6 @@
     <t>CM</t>
   </si>
   <si>
-    <t>Astral Arts (like soraka's starfall?)</t>
-  </si>
-  <si>
     <t>CY</t>
   </si>
   <si>
@@ -169,13 +166,31 @@
   </si>
   <si>
     <t>WASD</t>
+  </si>
+  <si>
+    <t>David R.</t>
+  </si>
+  <si>
+    <t>Veronica C.</t>
+  </si>
+  <si>
+    <t>Lixian W.</t>
+  </si>
+  <si>
+    <t>Kade W.</t>
+  </si>
+  <si>
+    <t>Aoife M.</t>
+  </si>
+  <si>
+    <t>Astral Arts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +381,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -444,6 +464,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -478,6 +499,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -653,14 +675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -669,7 +691,7 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
         <v>40</v>
@@ -702,7 +724,7 @@
       <c r="L1" s="17"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>42</v>
@@ -735,7 +757,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -768,7 +790,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -801,7 +823,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -809,7 +831,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
@@ -827,14 +849,14 @@
         <v>21</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -853,7 +875,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -872,7 +894,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -891,7 +913,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -910,12 +932,12 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
@@ -929,12 +951,12 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="2"/>
@@ -948,9 +970,13 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="13"/>
@@ -963,9 +989,13 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="13"/>
@@ -978,9 +1008,11 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="15"/>
@@ -993,7 +1025,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1008,7 +1040,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1023,7 +1055,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="21"/>
@@ -1044,24 +1076,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LR_clicks.xlsx
+++ b/LR_clicks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20055" windowHeight="7935"/>
@@ -189,8 +189,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +464,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -499,7 +498,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,14 +673,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -691,7 +689,7 @@
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,7 +722,7 @@
       <c r="L1" s="17"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -757,7 +755,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -790,7 +788,7 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -823,7 +821,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -856,7 +854,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -875,7 +873,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -894,7 +892,7 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -913,7 +911,7 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -932,7 +930,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
@@ -951,7 +949,7 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -970,7 +968,7 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
         <v>50</v>
       </c>
@@ -989,7 +987,7 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1008,7 +1006,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="10" t="s">
         <v>35</v>
       </c>
@@ -1025,7 +1023,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4"/>
@@ -1040,7 +1038,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="4"/>
@@ -1055,7 +1053,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="21"/>
@@ -1076,24 +1074,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
